--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_29102021.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_29102021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A540081F-3ADC-4B84-AD30-94BB847B5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4E3A3E-3DC9-4214-BBCF-A2924A48D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,12 +534,6 @@
     <t>0-0  0  (0)J31.dat</t>
   </si>
   <si>
-    <t>CRM-189-0159-1000-1</t>
-  </si>
-  <si>
-    <t>0-0  0  (0)CRM-189-0159-1000-1.dat</t>
-  </si>
-  <si>
     <t>THIS SHOULD BE CALLED 1200</t>
   </si>
   <si>
@@ -778,6 +772,12 @@
   </si>
   <si>
     <t>0-0  0  (0)CRM-189-0468-09.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-189-0159-1000.dat</t>
+  </si>
+  <si>
+    <t>CRM-189-0159-1000</t>
   </si>
 </sst>
 </file>
@@ -1194,26 +1194,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X95" sqref="X95"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5" max="18" width="8.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="33.7265625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7265625" style="1"/>
-    <col min="22" max="22" width="8.7265625" style="3"/>
-    <col min="23" max="23" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="18" width="8.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="33.7109375" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375" style="1"/>
+    <col min="22" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="23" width="8.7109375" style="1"/>
     <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="2"/>
-    <col min="26" max="16384" width="8.7265625" style="1"/>
+    <col min="25" max="25" width="8.7109375" style="2"/>
+    <col min="26" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>3.0590000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="E62" s="8">
         <v>360</v>
@@ -5819,7 +5819,7 @@
         <v>80</v>
       </c>
       <c r="S62" s="10" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="T62" s="8">
         <v>2</v>
@@ -5837,10 +5837,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="Y62" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E63" s="8">
         <v>360</v>
@@ -5896,7 +5896,7 @@
         <v>80</v>
       </c>
       <c r="S63" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T63" s="8">
         <v>2</v>
@@ -5914,10 +5914,10 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="Y63" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E64" s="1">
         <v>360</v>
@@ -5973,7 +5973,7 @@
         <v>80</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T64" s="1">
         <v>2</v>
@@ -5991,7 +5991,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E65" s="1">
         <v>360</v>
@@ -6047,7 +6047,7 @@
         <v>80</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T65" s="1">
         <v>2</v>
@@ -6065,7 +6065,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E66" s="1">
         <v>360</v>
@@ -6121,7 +6121,7 @@
         <v>80</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="T66" s="1">
         <v>7</v>
@@ -6130,10 +6130,10 @@
         <v>32</v>
       </c>
       <c r="Y66" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -6144,52 +6144,52 @@
         <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="1">
+        <v>360</v>
+      </c>
+      <c r="F67" s="1">
+        <v>75</v>
+      </c>
+      <c r="G67" s="1">
+        <v>120</v>
+      </c>
+      <c r="H67" s="1">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K67" s="1">
+        <v>150</v>
+      </c>
+      <c r="L67" s="1">
+        <v>150</v>
+      </c>
+      <c r="M67" s="1">
+        <v>18</v>
+      </c>
+      <c r="N67" s="1">
+        <v>3</v>
+      </c>
+      <c r="O67" s="1">
+        <v>2</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S67" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="E67" s="1">
-        <v>360</v>
-      </c>
-      <c r="F67" s="1">
-        <v>75</v>
-      </c>
-      <c r="G67" s="1">
-        <v>120</v>
-      </c>
-      <c r="H67" s="1">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1">
-        <v>1200</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1200</v>
-      </c>
-      <c r="K67" s="1">
-        <v>150</v>
-      </c>
-      <c r="L67" s="1">
-        <v>150</v>
-      </c>
-      <c r="M67" s="1">
-        <v>18</v>
-      </c>
-      <c r="N67" s="1">
-        <v>3</v>
-      </c>
-      <c r="O67" s="1">
-        <v>2</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="T67" s="1">
         <v>7</v>
@@ -6207,10 +6207,10 @@
         <v>3.9E-2</v>
       </c>
       <c r="Y67" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E68" s="1">
         <v>360</v>
@@ -6266,7 +6266,7 @@
         <v>80</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T68" s="1">
         <v>7</v>
@@ -6284,10 +6284,10 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y68" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E69" s="1">
         <v>360</v>
@@ -6343,7 +6343,7 @@
         <v>80</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T69" s="1">
         <v>7</v>
@@ -6361,10 +6361,10 @@
         <v>7.8E-2</v>
       </c>
       <c r="Y69" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E70" s="1">
         <v>360</v>
@@ -6420,7 +6420,7 @@
         <v>80</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T70" s="1">
         <v>7</v>
@@ -6438,10 +6438,10 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="Y70" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>60</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E71" s="1">
         <v>360</v>
@@ -6497,7 +6497,7 @@
         <v>80</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T71" s="1">
         <v>7</v>
@@ -6515,12 +6515,12 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="Y71" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
@@ -6529,7 +6529,7 @@
         <v>60</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1">
         <v>360</v>
@@ -6574,7 +6574,7 @@
         <v>80</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T72" s="1">
         <v>7</v>
@@ -6583,12 +6583,12 @@
         <v>32</v>
       </c>
       <c r="Y72" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
@@ -6597,7 +6597,7 @@
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E73" s="1">
         <v>360</v>
@@ -6642,7 +6642,7 @@
         <v>80</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T73" s="1">
         <v>7</v>
@@ -6651,12 +6651,12 @@
         <v>32</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
@@ -6665,7 +6665,7 @@
         <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E74" s="1">
         <v>360</v>
@@ -6710,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T74" s="1">
         <v>7</v>
@@ -6728,12 +6728,12 @@
         <v>0.184</v>
       </c>
       <c r="Y74" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -6742,7 +6742,7 @@
         <v>60</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E75" s="1">
         <v>360</v>
@@ -6787,7 +6787,7 @@
         <v>80</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T75" s="1">
         <v>7</v>
@@ -6805,12 +6805,12 @@
         <v>2.7E-2</v>
       </c>
       <c r="Y75" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B76" s="1">
         <v>4</v>
@@ -6819,7 +6819,7 @@
         <v>60</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E76" s="1">
         <v>360</v>
@@ -6864,7 +6864,7 @@
         <v>80</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T76" s="1">
         <v>7</v>
@@ -6882,12 +6882,12 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="Y76" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
@@ -6896,7 +6896,7 @@
         <v>60</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E77" s="1">
         <v>360</v>
@@ -6941,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T77" s="1">
         <v>7</v>
@@ -6959,12 +6959,12 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="Y77" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B78" s="1">
         <v>4</v>
@@ -6973,7 +6973,7 @@
         <v>60</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E78" s="1">
         <v>360</v>
@@ -7018,7 +7018,7 @@
         <v>80</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T78" s="1">
         <v>7</v>
@@ -7036,9 +7036,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -7047,7 +7047,7 @@
         <v>60</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E79" s="1">
         <v>360</v>
@@ -7092,7 +7092,7 @@
         <v>80</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T79" s="1">
         <v>7</v>
@@ -7110,9 +7110,9 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
@@ -7121,7 +7121,7 @@
         <v>61</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E80" s="1">
         <v>360</v>
@@ -7166,7 +7166,7 @@
         <v>80</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T80" s="1">
         <v>2</v>
@@ -7184,12 +7184,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y80" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="1">
         <v>4</v>
@@ -7198,7 +7198,7 @@
         <v>61</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E81" s="1">
         <v>360</v>
@@ -7243,7 +7243,7 @@
         <v>80</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T81" s="1">
         <v>2</v>
@@ -7261,12 +7261,12 @@
         <v>0.24</v>
       </c>
       <c r="Y81" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -7275,7 +7275,7 @@
         <v>61</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E82" s="1">
         <v>360</v>
@@ -7320,7 +7320,7 @@
         <v>80</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="T82" s="1">
         <v>2</v>
@@ -7338,12 +7338,12 @@
         <v>2.3E-2</v>
       </c>
       <c r="Y82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B83" s="1">
         <v>4</v>
@@ -7352,7 +7352,7 @@
         <v>25</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E83" s="1">
         <v>360</v>
@@ -7397,7 +7397,7 @@
         <v>80</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T83" s="1">
         <v>2</v>
@@ -7415,9 +7415,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -7426,7 +7426,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E84" s="1">
         <v>360</v>
@@ -7471,7 +7471,7 @@
         <v>80</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T84" s="1">
         <v>2</v>
@@ -7489,9 +7489,9 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" s="1">
         <v>4</v>
@@ -7500,7 +7500,7 @@
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E85" s="1">
         <v>360</v>
@@ -7545,7 +7545,7 @@
         <v>80</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T85" s="1">
         <v>2</v>
@@ -7563,9 +7563,9 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" s="1">
         <v>4</v>
@@ -7574,7 +7574,7 @@
         <v>26</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E86" s="1">
         <v>360</v>
@@ -7619,7 +7619,7 @@
         <v>80</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="T86" s="1">
         <v>2</v>
@@ -7637,9 +7637,9 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1">
         <v>4</v>
@@ -7648,7 +7648,7 @@
         <v>26</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E87" s="1">
         <v>360</v>
@@ -7693,7 +7693,7 @@
         <v>80</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="T87" s="1">
         <v>2</v>
@@ -7711,9 +7711,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1">
         <v>4</v>
@@ -7722,7 +7722,7 @@
         <v>61</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E88" s="1">
         <v>360</v>
@@ -7767,7 +7767,7 @@
         <v>80</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="T88" s="1">
         <v>2</v>
@@ -7785,12 +7785,12 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="Y88" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -7799,7 +7799,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E89" s="1">
         <v>360</v>
@@ -7844,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="T89" s="1">
         <v>2</v>
@@ -7862,9 +7862,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -7873,7 +7873,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E90" s="1">
         <v>360</v>
@@ -7918,7 +7918,7 @@
         <v>80</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T90" s="1">
         <v>2</v>
@@ -7936,9 +7936,9 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
@@ -7947,7 +7947,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E91" s="1">
         <v>360</v>
@@ -7992,7 +7992,7 @@
         <v>80</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T91" s="1">
         <v>2</v>
@@ -8010,9 +8010,9 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -8021,7 +8021,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E92" s="1">
         <v>360</v>
@@ -8066,7 +8066,7 @@
         <v>80</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T92" s="1">
         <v>2</v>
@@ -8084,9 +8084,9 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1">
         <v>4</v>
@@ -8095,52 +8095,52 @@
         <v>61</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="1">
+        <v>360</v>
+      </c>
+      <c r="F93" s="1">
+        <v>75</v>
+      </c>
+      <c r="G93" s="1">
+        <v>120</v>
+      </c>
+      <c r="H93" s="1">
+        <v>10</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K93" s="1">
+        <v>150</v>
+      </c>
+      <c r="L93" s="1">
+        <v>150</v>
+      </c>
+      <c r="M93" s="1">
+        <v>18</v>
+      </c>
+      <c r="N93" s="1">
+        <v>3</v>
+      </c>
+      <c r="O93" s="1">
+        <v>2</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S93" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E93" s="1">
-        <v>360</v>
-      </c>
-      <c r="F93" s="1">
-        <v>75</v>
-      </c>
-      <c r="G93" s="1">
-        <v>120</v>
-      </c>
-      <c r="H93" s="1">
-        <v>10</v>
-      </c>
-      <c r="I93" s="1">
-        <v>1200</v>
-      </c>
-      <c r="J93" s="1">
-        <v>1200</v>
-      </c>
-      <c r="K93" s="1">
-        <v>150</v>
-      </c>
-      <c r="L93" s="1">
-        <v>150</v>
-      </c>
-      <c r="M93" s="1">
-        <v>18</v>
-      </c>
-      <c r="N93" s="1">
-        <v>3</v>
-      </c>
-      <c r="O93" s="1">
-        <v>2</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="T93" s="1">
         <v>2</v>
@@ -8158,12 +8158,12 @@
         <v>0.247</v>
       </c>
       <c r="Y93" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B94" s="1">
         <v>4</v>
@@ -8172,7 +8172,7 @@
         <v>61</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E94" s="1">
         <v>360</v>
@@ -8217,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T94" s="1">
         <v>2</v>
@@ -8235,7 +8235,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="Y94" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_29102021.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_29102021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4E3A3E-3DC9-4214-BBCF-A2924A48D0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CA0EE-44FC-41A5-9415-FD3971DBE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="273">
   <si>
     <t>Area</t>
   </si>
@@ -778,6 +778,81 @@
   </si>
   <si>
     <t>CRM-189-0159-1000</t>
+  </si>
+  <si>
+    <t>24/11/2021</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J46.dat</t>
+  </si>
+  <si>
+    <t>J47</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>J49</t>
+  </si>
+  <si>
+    <t>J50</t>
+  </si>
+  <si>
+    <t>J51</t>
+  </si>
+  <si>
+    <t>J52</t>
+  </si>
+  <si>
+    <t>Pelter too cold and stays off while on in software</t>
+  </si>
+  <si>
+    <t>Kloehn no working - RESTARTED SYSTEM + RESET ZERO x 1</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J47.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J48.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J49.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J50.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J51.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J52.dat</t>
+  </si>
+  <si>
+    <t>GOOD - Reset zero before this one</t>
+  </si>
+  <si>
+    <t>J53</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J53.dat</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>J54</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J54.dat</t>
+  </si>
+  <si>
+    <t>J55</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)J55.dat</t>
   </si>
 </sst>
 </file>
@@ -1192,28 +1267,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD63930-A9D0-4326-B92B-8C89864D4982}">
-  <dimension ref="A1:Y94"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T99" sqref="T99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="33.7109375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7109375" style="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="12.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="33.7265625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7265625" style="1"/>
+    <col min="22" max="22" width="8.7265625" style="3"/>
+    <col min="23" max="23" width="8.7265625" style="1"/>
     <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2"/>
-    <col min="26" max="16384" width="8.7109375" style="1"/>
+    <col min="25" max="25" width="8.7265625" style="2"/>
+    <col min="26" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1290,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1367,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1441,7 +1516,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1667,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1818,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1820,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1894,7 +1969,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +2043,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2117,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2119,7 +2194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2268,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2342,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2341,7 +2416,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2415,7 +2490,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2564,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2638,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2712,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2711,7 +2786,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2860,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -2859,7 +2934,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2933,7 +3008,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3007,7 +3082,7 @@
         <v>3.0590000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3081,7 +3156,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3158,7 +3233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3235,7 +3310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3309,7 +3384,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3383,7 +3458,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3457,7 +3532,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3606,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3605,7 +3680,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3679,7 +3754,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3756,7 +3831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -3833,7 +3908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -3984,7 +4059,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -4058,7 +4133,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4132,7 +4207,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4206,7 +4281,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4280,7 +4355,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -4354,7 +4429,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -4428,7 +4503,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -4502,7 +4577,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -4576,7 +4651,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4725,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -4727,7 +4802,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -4801,7 +4876,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -4875,7 +4950,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -4949,7 +5024,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -5023,7 +5098,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -5097,7 +5172,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -5171,7 +5246,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -5245,7 +5320,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5319,7 +5394,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -5393,7 +5468,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -5467,7 +5542,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -5541,7 +5616,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -5615,7 +5690,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -5689,7 +5764,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -5763,7 +5838,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -5840,7 +5915,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
@@ -5917,7 +5992,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -5991,7 +6066,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -6065,7 +6140,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -6133,7 +6208,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -6210,7 +6285,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -6287,7 +6362,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -6364,7 +6439,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -6441,7 +6516,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -6518,7 +6593,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>174</v>
       </c>
@@ -6586,7 +6661,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
@@ -6654,7 +6729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>174</v>
       </c>
@@ -6731,7 +6806,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>174</v>
       </c>
@@ -6808,7 +6883,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -6885,7 +6960,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
@@ -6962,7 +7037,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -7036,7 +7111,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>174</v>
       </c>
@@ -7110,7 +7185,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -7187,7 +7262,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
@@ -7264,7 +7339,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -7341,7 +7416,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -7415,7 +7490,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
@@ -7489,7 +7564,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>174</v>
       </c>
@@ -7563,7 +7638,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -7637,7 +7712,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
@@ -7711,7 +7786,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -7788,7 +7863,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
@@ -7862,7 +7937,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -7936,7 +8011,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>174</v>
       </c>
@@ -8010,7 +8085,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>174</v>
       </c>
@@ -8084,7 +8159,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>174</v>
       </c>
@@ -8161,7 +8236,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>174</v>
       </c>
@@ -8236,6 +8311,746 @@
       </c>
       <c r="Y94" s="2" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" s="1">
+        <v>360</v>
+      </c>
+      <c r="F95" s="1">
+        <v>75</v>
+      </c>
+      <c r="G95" s="1">
+        <v>120</v>
+      </c>
+      <c r="H95" s="1">
+        <v>10</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K95" s="1">
+        <v>150</v>
+      </c>
+      <c r="L95" s="1">
+        <v>150</v>
+      </c>
+      <c r="M95" s="1">
+        <v>18</v>
+      </c>
+      <c r="N95" s="1">
+        <v>3</v>
+      </c>
+      <c r="O95" s="1">
+        <v>2</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T95" s="1">
+        <v>7</v>
+      </c>
+      <c r="U95" s="1">
+        <v>32</v>
+      </c>
+      <c r="V95" s="3">
+        <v>2333.1999999999998</v>
+      </c>
+      <c r="W95" s="1">
+        <v>25558</v>
+      </c>
+      <c r="X95" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" s="1">
+        <v>360</v>
+      </c>
+      <c r="F96" s="1">
+        <v>75</v>
+      </c>
+      <c r="G96" s="1">
+        <v>120</v>
+      </c>
+      <c r="H96" s="1">
+        <v>10</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K96" s="1">
+        <v>150</v>
+      </c>
+      <c r="L96" s="1">
+        <v>150</v>
+      </c>
+      <c r="M96" s="1">
+        <v>18</v>
+      </c>
+      <c r="N96" s="1">
+        <v>3</v>
+      </c>
+      <c r="O96" s="1">
+        <v>2</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="T96" s="1">
+        <v>7</v>
+      </c>
+      <c r="U96" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E97" s="1">
+        <v>360</v>
+      </c>
+      <c r="F97" s="1">
+        <v>75</v>
+      </c>
+      <c r="G97" s="1">
+        <v>120</v>
+      </c>
+      <c r="H97" s="1">
+        <v>10</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K97" s="1">
+        <v>150</v>
+      </c>
+      <c r="L97" s="1">
+        <v>150</v>
+      </c>
+      <c r="M97" s="1">
+        <v>18</v>
+      </c>
+      <c r="N97" s="1">
+        <v>3</v>
+      </c>
+      <c r="O97" s="1">
+        <v>2</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T97" s="1">
+        <v>7</v>
+      </c>
+      <c r="U97" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" s="1">
+        <v>360</v>
+      </c>
+      <c r="F98" s="1">
+        <v>75</v>
+      </c>
+      <c r="G98" s="1">
+        <v>120</v>
+      </c>
+      <c r="H98" s="1">
+        <v>10</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K98" s="1">
+        <v>150</v>
+      </c>
+      <c r="L98" s="1">
+        <v>150</v>
+      </c>
+      <c r="M98" s="1">
+        <v>18</v>
+      </c>
+      <c r="N98" s="1">
+        <v>3</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T98" s="1">
+        <v>7</v>
+      </c>
+      <c r="U98" s="1">
+        <v>32</v>
+      </c>
+      <c r="V98" s="3">
+        <v>2225.3000000000002</v>
+      </c>
+      <c r="W98" s="1">
+        <v>24375</v>
+      </c>
+      <c r="X98" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="Y98" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E99" s="1">
+        <v>360</v>
+      </c>
+      <c r="F99" s="1">
+        <v>75</v>
+      </c>
+      <c r="G99" s="1">
+        <v>120</v>
+      </c>
+      <c r="H99" s="1">
+        <v>10</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K99" s="1">
+        <v>150</v>
+      </c>
+      <c r="L99" s="1">
+        <v>150</v>
+      </c>
+      <c r="M99" s="1">
+        <v>18</v>
+      </c>
+      <c r="N99" s="1">
+        <v>3</v>
+      </c>
+      <c r="O99" s="1">
+        <v>2</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="T99" s="1">
+        <v>1</v>
+      </c>
+      <c r="U99" s="1">
+        <v>32</v>
+      </c>
+      <c r="V99" s="3">
+        <v>2158.1</v>
+      </c>
+      <c r="W99" s="1">
+        <v>23637</v>
+      </c>
+      <c r="X99" s="1">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="Y99" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E100" s="1">
+        <v>360</v>
+      </c>
+      <c r="F100" s="1">
+        <v>75</v>
+      </c>
+      <c r="G100" s="1">
+        <v>120</v>
+      </c>
+      <c r="H100" s="1">
+        <v>10</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K100" s="1">
+        <v>150</v>
+      </c>
+      <c r="L100" s="1">
+        <v>150</v>
+      </c>
+      <c r="M100" s="1">
+        <v>18</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="T100" s="1">
+        <v>7</v>
+      </c>
+      <c r="U100" s="1">
+        <v>32</v>
+      </c>
+      <c r="V100" s="3">
+        <v>2157.1</v>
+      </c>
+      <c r="W100" s="1">
+        <v>23626</v>
+      </c>
+      <c r="X100" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="Y100" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" s="1">
+        <v>360</v>
+      </c>
+      <c r="F101" s="1">
+        <v>75</v>
+      </c>
+      <c r="G101" s="1">
+        <v>120</v>
+      </c>
+      <c r="H101" s="1">
+        <v>10</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="1">
+        <v>150</v>
+      </c>
+      <c r="L101" s="1">
+        <v>150</v>
+      </c>
+      <c r="M101" s="1">
+        <v>18</v>
+      </c>
+      <c r="N101" s="1">
+        <v>3</v>
+      </c>
+      <c r="O101" s="1">
+        <v>2</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T101" s="1">
+        <v>7</v>
+      </c>
+      <c r="U101" s="1">
+        <v>32</v>
+      </c>
+      <c r="V101" s="3">
+        <v>2333.1</v>
+      </c>
+      <c r="W101" s="1">
+        <v>25553</v>
+      </c>
+      <c r="X101" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E102" s="1">
+        <v>360</v>
+      </c>
+      <c r="F102" s="1">
+        <v>75</v>
+      </c>
+      <c r="G102" s="1">
+        <v>120</v>
+      </c>
+      <c r="H102" s="1">
+        <v>10</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K102" s="1">
+        <v>150</v>
+      </c>
+      <c r="L102" s="1">
+        <v>150</v>
+      </c>
+      <c r="M102" s="1">
+        <v>18</v>
+      </c>
+      <c r="N102" s="1">
+        <v>3</v>
+      </c>
+      <c r="O102" s="1">
+        <v>2</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="T102" s="1">
+        <v>7</v>
+      </c>
+      <c r="U102" s="1">
+        <v>32</v>
+      </c>
+      <c r="V102" s="3">
+        <v>2335.1</v>
+      </c>
+      <c r="W102" s="1">
+        <v>25574</v>
+      </c>
+      <c r="X102" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="Y102" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E103" s="1">
+        <v>360</v>
+      </c>
+      <c r="F103" s="1">
+        <v>75</v>
+      </c>
+      <c r="G103" s="1">
+        <v>120</v>
+      </c>
+      <c r="H103" s="1">
+        <v>10</v>
+      </c>
+      <c r="I103" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K103" s="1">
+        <v>150</v>
+      </c>
+      <c r="L103" s="1">
+        <v>150</v>
+      </c>
+      <c r="M103" s="1">
+        <v>18</v>
+      </c>
+      <c r="N103" s="1">
+        <v>3</v>
+      </c>
+      <c r="O103" s="1">
+        <v>2</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T103" s="1">
+        <v>7</v>
+      </c>
+      <c r="U103" s="1">
+        <v>32</v>
+      </c>
+      <c r="V103" s="3">
+        <v>2329.6999999999998</v>
+      </c>
+      <c r="W103" s="1">
+        <v>25514</v>
+      </c>
+      <c r="X103" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Y103" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E104" s="1">
+        <v>360</v>
+      </c>
+      <c r="F104" s="1">
+        <v>75</v>
+      </c>
+      <c r="G104" s="1">
+        <v>120</v>
+      </c>
+      <c r="H104" s="1">
+        <v>10</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1200</v>
+      </c>
+      <c r="K104" s="1">
+        <v>150</v>
+      </c>
+      <c r="L104" s="1">
+        <v>150</v>
+      </c>
+      <c r="M104" s="1">
+        <v>18</v>
+      </c>
+      <c r="N104" s="1">
+        <v>3</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T104" s="1">
+        <v>7</v>
+      </c>
+      <c r="U104" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
